--- a/documents/Que Decision Matrices.xlsx
+++ b/documents/Que Decision Matrices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/619d7d6d1699b471/Employment/Que/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{8378C29B-DB03-408C-9861-613BB542A7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5247B22B-8F47-4D1F-B40A-9F6F75ECEE83}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{8378C29B-DB03-408C-9861-613BB542A7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21662514-8AFA-4621-A2F9-FD848E6870EC}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="1455" windowWidth="14370" windowHeight="12675" xr2:uid="{583F075B-6986-4BEE-89E5-738186F899E3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Air Movement " sheetId="1" r:id="rId1"/>
     <sheet name="Air Barrier" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,67 +37,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>Microblower</t>
+  </si>
+  <si>
+    <t>Microfan</t>
+  </si>
+  <si>
+    <t>Air Pump 
+(CurieJet)</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Piezoelectric Pump</t>
+  </si>
+  <si>
+    <t>Electromagnetic Pump</t>
+  </si>
+  <si>
+    <t>Power Consumption (W)</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Durability</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Airflow Rate</t>
+  </si>
   <si>
     <t>Weight</t>
   </si>
   <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.curiejet.com/en/product/micro-pump/air-pump-and-micro-blower</t>
+  </si>
+  <si>
     <t>Factor</t>
   </si>
   <si>
-    <t>Microblower</t>
-  </si>
-  <si>
-    <t>Microfan</t>
-  </si>
-  <si>
-    <t>Air Pump</t>
-  </si>
-  <si>
-    <t>Passive</t>
-  </si>
-  <si>
-    <t>Power Consumption</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Noise</t>
-  </si>
-  <si>
-    <t>Durability</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
+    <t>Ball Check Valve</t>
+  </si>
+  <si>
+    <t>Flap Check Valve</t>
   </si>
   <si>
     <t>Water Resistance</t>
-  </si>
-  <si>
-    <t>Ball Check Valve</t>
-  </si>
-  <si>
-    <t>Flap Check Valve</t>
-  </si>
-  <si>
-    <t>Piezoelectric Pump</t>
-  </si>
-  <si>
-    <t>Electromagnetic Pump</t>
-  </si>
-  <si>
-    <t>Airflow Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,13 +135,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,79 +480,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9235F3-055E-4672-8DEE-085E517FFD72}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:7" ht="29.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{C11F6839-C425-47F7-B872-69290A094F88}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -544,35 +574,35 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
